--- a/Person/赵宁/用户故事.xlsx
+++ b/Person/赵宁/用户故事.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\17277\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\17277\Desktop\software-process-homework\Person\赵宁\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4B56854-1F45-41FA-94F9-4AFE520E7274}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF957582-4E7F-430B-AE51-563A7818844A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -128,6 +128,10 @@
   </si>
   <si>
     <t>user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始时间估算（h）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -171,8 +175,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -453,19 +460,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="14.375" customWidth="1"/>
     <col min="3" max="3" width="93.5" customWidth="1"/>
+    <col min="6" max="6" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -481,8 +489,11 @@
       <c r="E1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -498,8 +509,11 @@
       <c r="E2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -515,8 +529,11 @@
       <c r="E3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -532,8 +549,11 @@
       <c r="E4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -549,8 +569,11 @@
       <c r="E5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -566,8 +589,11 @@
       <c r="E6" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -583,8 +609,11 @@
       <c r="E7" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -600,8 +629,11 @@
       <c r="E8" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -617,8 +649,11 @@
       <c r="E9" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -634,8 +669,11 @@
       <c r="E10" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -651,6 +689,12 @@
       <c r="E11" t="s">
         <v>25</v>
       </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F12" s="1"/>
     </row>
   </sheetData>
   <sortState ref="A2:D11">
